--- a/artfynd/A 49540-2022.xlsx
+++ b/artfynd/A 49540-2022.xlsx
@@ -1776,10 +1776,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111577838</v>
+        <v>111577591</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1788,39 +1788,44 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562801.9298062191</v>
+        <v>562822.1033927511</v>
       </c>
       <c r="R11" t="n">
-        <v>6954389.67147268</v>
+        <v>6954368.028004575</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1852,7 +1857,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1862,7 +1867,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1889,10 +1894,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111577193</v>
+        <v>111577964</v>
       </c>
       <c r="B12" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1905,21 +1910,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1930,10 +1935,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562885.3077477051</v>
+        <v>562836.2055113926</v>
       </c>
       <c r="R12" t="n">
-        <v>6954427.514711756</v>
+        <v>6954423.824987715</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1965,7 +1970,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1975,7 +1980,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2002,10 +2007,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111577591</v>
+        <v>111578090</v>
       </c>
       <c r="B13" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2018,40 +2023,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562822.1033927511</v>
+        <v>562890.6102569005</v>
       </c>
       <c r="R13" t="n">
-        <v>6954368.028004575</v>
+        <v>6954486.814324431</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2346,7 +2346,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111578090</v>
+        <v>111577080</v>
       </c>
       <c r="B16" t="n">
         <v>89405</v>
@@ -2387,10 +2387,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562890.6102569005</v>
+        <v>562937.8525077751</v>
       </c>
       <c r="R16" t="n">
-        <v>6954486.814324431</v>
+        <v>6954467.524316943</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2459,10 +2459,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111577347</v>
+        <v>111577273</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2471,25 +2471,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2500,10 +2500,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562796.503171768</v>
+        <v>562824.7977144517</v>
       </c>
       <c r="R17" t="n">
-        <v>6954336.792844097</v>
+        <v>6954323.105396069</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2572,7 +2572,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111577964</v>
+        <v>111575408</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562836.2055113926</v>
+        <v>562539.034657649</v>
       </c>
       <c r="R18" t="n">
-        <v>6954423.824987715</v>
+        <v>6954609.073577877</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2685,7 +2685,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111577611</v>
+        <v>111577347</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2726,10 +2726,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562810.9079359611</v>
+        <v>562796.503171768</v>
       </c>
       <c r="R19" t="n">
-        <v>6954400.856378952</v>
+        <v>6954336.792844097</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2798,10 +2798,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111577080</v>
+        <v>111577838</v>
       </c>
       <c r="B20" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2810,25 +2810,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562937.8525077751</v>
+        <v>562801.9298062191</v>
       </c>
       <c r="R20" t="n">
-        <v>6954467.524316943</v>
+        <v>6954389.67147268</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2911,10 +2911,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111577180</v>
+        <v>111577683</v>
       </c>
       <c r="B21" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2923,25 +2923,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2952,10 +2952,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562883.198926247</v>
+        <v>562810.9079359611</v>
       </c>
       <c r="R21" t="n">
-        <v>6954441.700568204</v>
+        <v>6954400.856378952</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3024,7 +3024,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111577273</v>
+        <v>111577180</v>
       </c>
       <c r="B22" t="n">
         <v>89686</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562824.7977144517</v>
+        <v>562883.198926247</v>
       </c>
       <c r="R22" t="n">
-        <v>6954323.105396069</v>
+        <v>6954441.700568204</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111575408</v>
+        <v>111577193</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3153,21 +3153,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3178,10 +3178,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562539.034657649</v>
+        <v>562885.3077477051</v>
       </c>
       <c r="R23" t="n">
-        <v>6954609.073577877</v>
+        <v>6954427.514711756</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 49540-2022.xlsx
+++ b/artfynd/A 49540-2022.xlsx
@@ -1663,10 +1663,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111577743</v>
+        <v>111577273</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1675,25 +1675,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562802.8660743404</v>
+        <v>562824.7977144517</v>
       </c>
       <c r="R10" t="n">
-        <v>6954388.771485241</v>
+        <v>6954323.105396069</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1776,10 +1776,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111577591</v>
+        <v>111577193</v>
       </c>
       <c r="B11" t="n">
-        <v>56543</v>
+        <v>89845</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1788,44 +1788,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562822.1033927511</v>
+        <v>562885.3077477051</v>
       </c>
       <c r="R11" t="n">
-        <v>6954368.028004575</v>
+        <v>6954427.514711756</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1857,7 +1852,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1867,7 +1862,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1894,10 +1889,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111577964</v>
+        <v>111578090</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1906,25 +1901,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1935,10 +1930,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562836.2055113926</v>
+        <v>562890.6102569005</v>
       </c>
       <c r="R12" t="n">
-        <v>6954423.824987715</v>
+        <v>6954486.814324431</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1970,7 +1965,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1980,7 +1975,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2007,10 +2002,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111578090</v>
+        <v>111577611</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2019,25 +2014,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2048,10 +2043,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562890.6102569005</v>
+        <v>562810.9079359611</v>
       </c>
       <c r="R13" t="n">
-        <v>6954486.814324431</v>
+        <v>6954400.856378952</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2083,7 +2078,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2093,7 +2088,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2120,10 +2115,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111578062</v>
+        <v>111577838</v>
       </c>
       <c r="B14" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2132,25 +2127,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2161,10 +2156,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>562890.6102569005</v>
+        <v>562801.9298062191</v>
       </c>
       <c r="R14" t="n">
-        <v>6954486.814324431</v>
+        <v>6954389.67147268</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2196,7 +2191,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2206,7 +2201,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2233,7 +2228,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111577804</v>
+        <v>111577919</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2274,10 +2269,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562814.775380839</v>
+        <v>562836.2055113926</v>
       </c>
       <c r="R15" t="n">
-        <v>6954390.834027934</v>
+        <v>6954423.824987715</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2346,10 +2341,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111577080</v>
+        <v>111577180</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2362,21 +2357,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2387,10 +2382,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562937.8525077751</v>
+        <v>562883.198926247</v>
       </c>
       <c r="R16" t="n">
-        <v>6954467.524316943</v>
+        <v>6954441.700568204</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2459,7 +2454,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111577273</v>
+        <v>111578062</v>
       </c>
       <c r="B17" t="n">
         <v>89686</v>
@@ -2500,10 +2495,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562824.7977144517</v>
+        <v>562890.6102569005</v>
       </c>
       <c r="R17" t="n">
-        <v>6954323.105396069</v>
+        <v>6954486.814324431</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2535,7 +2530,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2545,7 +2540,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2572,7 +2567,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111575408</v>
+        <v>111577804</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2613,10 +2608,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562539.034657649</v>
+        <v>562814.775380839</v>
       </c>
       <c r="R18" t="n">
-        <v>6954609.073577877</v>
+        <v>6954390.834027934</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2648,7 +2643,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2658,7 +2653,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2685,7 +2680,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111577347</v>
+        <v>111575408</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2726,10 +2721,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562796.503171768</v>
+        <v>562539.034657649</v>
       </c>
       <c r="R19" t="n">
-        <v>6954336.792844097</v>
+        <v>6954609.073577877</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2761,7 +2756,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2771,7 +2766,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2798,7 +2793,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111577838</v>
+        <v>111577347</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2839,10 +2834,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562801.9298062191</v>
+        <v>562796.503171768</v>
       </c>
       <c r="R20" t="n">
-        <v>6954389.67147268</v>
+        <v>6954336.792844097</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2874,7 +2869,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2884,7 +2879,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2911,10 +2906,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111577683</v>
+        <v>111577591</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2923,39 +2918,44 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562810.9079359611</v>
+        <v>562822.1033927511</v>
       </c>
       <c r="R21" t="n">
-        <v>6954400.856378952</v>
+        <v>6954368.028004575</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3024,10 +3024,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111577180</v>
+        <v>111577743</v>
       </c>
       <c r="B22" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,25 +3036,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562883.198926247</v>
+        <v>562802.8660743404</v>
       </c>
       <c r="R22" t="n">
-        <v>6954441.700568204</v>
+        <v>6954388.771485241</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3137,10 +3137,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111577193</v>
+        <v>111577080</v>
       </c>
       <c r="B23" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3149,25 +3149,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3178,10 +3178,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562885.3077477051</v>
+        <v>562937.8525077751</v>
       </c>
       <c r="R23" t="n">
-        <v>6954427.514711756</v>
+        <v>6954467.524316943</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>

--- a/artfynd/A 49540-2022.xlsx
+++ b/artfynd/A 49540-2022.xlsx
@@ -1663,10 +1663,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111577273</v>
+        <v>111577919</v>
       </c>
       <c r="B10" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1675,25 +1675,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562824.7977144517</v>
+        <v>562836.2055113926</v>
       </c>
       <c r="R10" t="n">
-        <v>6954323.105396069</v>
+        <v>6954423.824987715</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1776,10 +1776,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111577193</v>
+        <v>111577080</v>
       </c>
       <c r="B11" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562885.3077477051</v>
+        <v>562937.8525077751</v>
       </c>
       <c r="R11" t="n">
-        <v>6954427.514711756</v>
+        <v>6954467.524316943</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111578090</v>
+        <v>111577273</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1905,21 +1905,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562890.6102569005</v>
+        <v>562824.7977144517</v>
       </c>
       <c r="R12" t="n">
-        <v>6954486.814324431</v>
+        <v>6954323.105396069</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2002,10 +2002,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111577611</v>
+        <v>111577591</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2014,39 +2014,44 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562810.9079359611</v>
+        <v>562822.1033927511</v>
       </c>
       <c r="R13" t="n">
-        <v>6954400.856378952</v>
+        <v>6954368.028004575</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2115,10 +2120,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111577838</v>
+        <v>111578090</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2127,25 +2132,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2156,10 +2161,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>562801.9298062191</v>
+        <v>562890.6102569005</v>
       </c>
       <c r="R14" t="n">
-        <v>6954389.67147268</v>
+        <v>6954486.814324431</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2191,7 +2196,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2201,7 +2206,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2228,7 +2233,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111577919</v>
+        <v>111575408</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2269,10 +2274,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562836.2055113926</v>
+        <v>562539.034657649</v>
       </c>
       <c r="R15" t="n">
-        <v>6954423.824987715</v>
+        <v>6954609.073577877</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2304,7 +2309,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2314,7 +2319,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2454,10 +2459,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111578062</v>
+        <v>111577743</v>
       </c>
       <c r="B17" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2466,25 +2471,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2495,10 +2500,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562890.6102569005</v>
+        <v>562802.8660743404</v>
       </c>
       <c r="R17" t="n">
-        <v>6954486.814324431</v>
+        <v>6954388.771485241</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2530,7 +2535,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2540,7 +2545,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2567,7 +2572,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111577804</v>
+        <v>111577611</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2608,10 +2613,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562814.775380839</v>
+        <v>562810.9079359611</v>
       </c>
       <c r="R18" t="n">
-        <v>6954390.834027934</v>
+        <v>6954400.856378952</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2680,7 +2685,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111575408</v>
+        <v>111577347</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2721,10 +2726,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562539.034657649</v>
+        <v>562796.503171768</v>
       </c>
       <c r="R19" t="n">
-        <v>6954609.073577877</v>
+        <v>6954336.792844097</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2756,7 +2761,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2766,7 +2771,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2793,10 +2798,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111577347</v>
+        <v>111577994</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2805,25 +2810,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2834,10 +2839,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562796.503171768</v>
+        <v>562890.6102569005</v>
       </c>
       <c r="R20" t="n">
-        <v>6954336.792844097</v>
+        <v>6954486.814324431</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2906,10 +2911,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111577591</v>
+        <v>111577838</v>
       </c>
       <c r="B21" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2918,44 +2923,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562822.1033927511</v>
+        <v>562801.9298062191</v>
       </c>
       <c r="R21" t="n">
-        <v>6954368.028004575</v>
+        <v>6954389.67147268</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3024,7 +3024,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111577743</v>
+        <v>111577804</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562802.8660743404</v>
+        <v>562814.775380839</v>
       </c>
       <c r="R22" t="n">
-        <v>6954388.771485241</v>
+        <v>6954390.834027934</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3137,10 +3137,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111577080</v>
+        <v>111577193</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3149,25 +3149,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3178,10 +3178,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562937.8525077751</v>
+        <v>562885.3077477051</v>
       </c>
       <c r="R23" t="n">
-        <v>6954467.524316943</v>
+        <v>6954427.514711756</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>

--- a/artfynd/A 49540-2022.xlsx
+++ b/artfynd/A 49540-2022.xlsx
@@ -1663,10 +1663,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111577919</v>
+        <v>111578090</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1675,25 +1675,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562836.2055113926</v>
+        <v>562890.6102569005</v>
       </c>
       <c r="R10" t="n">
-        <v>6954423.824987715</v>
+        <v>6954486.814324431</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1776,10 +1776,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111577080</v>
+        <v>111577964</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562937.8525077751</v>
+        <v>562836.2055113926</v>
       </c>
       <c r="R11" t="n">
-        <v>6954467.524316943</v>
+        <v>6954423.824987715</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1889,7 +1889,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111577273</v>
+        <v>111577994</v>
       </c>
       <c r="B12" t="n">
         <v>89686</v>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562824.7977144517</v>
+        <v>562890.6102569005</v>
       </c>
       <c r="R12" t="n">
-        <v>6954323.105396069</v>
+        <v>6954486.814324431</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2120,10 +2120,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111578090</v>
+        <v>111577347</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2132,25 +2132,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>562890.6102569005</v>
+        <v>562796.503171768</v>
       </c>
       <c r="R14" t="n">
-        <v>6954486.814324431</v>
+        <v>6954336.792844097</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2233,10 +2233,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111575408</v>
+        <v>111577080</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2245,25 +2245,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2274,10 +2274,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562539.034657649</v>
+        <v>562937.8525077751</v>
       </c>
       <c r="R15" t="n">
-        <v>6954609.073577877</v>
+        <v>6954467.524316943</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2346,10 +2346,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111577180</v>
+        <v>111575408</v>
       </c>
       <c r="B16" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2358,25 +2358,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2387,10 +2387,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562883.198926247</v>
+        <v>562539.034657649</v>
       </c>
       <c r="R16" t="n">
-        <v>6954441.700568204</v>
+        <v>6954609.073577877</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2459,10 +2459,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111577743</v>
+        <v>111577273</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2471,25 +2471,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2500,10 +2500,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562802.8660743404</v>
+        <v>562824.7977144517</v>
       </c>
       <c r="R17" t="n">
-        <v>6954388.771485241</v>
+        <v>6954323.105396069</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2572,7 +2572,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111577611</v>
+        <v>111577838</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562810.9079359611</v>
+        <v>562801.9298062191</v>
       </c>
       <c r="R18" t="n">
-        <v>6954400.856378952</v>
+        <v>6954389.67147268</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2685,10 +2685,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111577347</v>
+        <v>111577193</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2701,21 +2701,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2726,10 +2726,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562796.503171768</v>
+        <v>562885.3077477051</v>
       </c>
       <c r="R19" t="n">
-        <v>6954336.792844097</v>
+        <v>6954427.514711756</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2798,10 +2798,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111577994</v>
+        <v>111577743</v>
       </c>
       <c r="B20" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2810,25 +2810,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562890.6102569005</v>
+        <v>562802.8660743404</v>
       </c>
       <c r="R20" t="n">
-        <v>6954486.814324431</v>
+        <v>6954388.771485241</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2911,7 +2911,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111577838</v>
+        <v>111577804</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2952,10 +2952,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562801.9298062191</v>
+        <v>562814.775380839</v>
       </c>
       <c r="R21" t="n">
-        <v>6954389.67147268</v>
+        <v>6954390.834027934</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3024,7 +3024,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111577804</v>
+        <v>111577683</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562814.775380839</v>
+        <v>562810.9079359611</v>
       </c>
       <c r="R22" t="n">
-        <v>6954390.834027934</v>
+        <v>6954400.856378952</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3137,10 +3137,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111577193</v>
+        <v>111577180</v>
       </c>
       <c r="B23" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3149,25 +3149,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3178,10 +3178,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562885.3077477051</v>
+        <v>562883.198926247</v>
       </c>
       <c r="R23" t="n">
-        <v>6954427.514711756</v>
+        <v>6954441.700568204</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>

--- a/artfynd/A 49540-2022.xlsx
+++ b/artfynd/A 49540-2022.xlsx
@@ -2002,10 +2002,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111577591</v>
+        <v>111577347</v>
       </c>
       <c r="B13" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2014,44 +2014,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562822.1033927511</v>
+        <v>562796.503171768</v>
       </c>
       <c r="R13" t="n">
-        <v>6954368.028004575</v>
+        <v>6954336.792844097</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2120,10 +2115,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111577347</v>
+        <v>111577080</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2132,25 +2127,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2161,10 +2156,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>562796.503171768</v>
+        <v>562937.8525077751</v>
       </c>
       <c r="R14" t="n">
-        <v>6954336.792844097</v>
+        <v>6954467.524316943</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2196,7 +2191,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2206,7 +2201,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2233,10 +2228,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111577080</v>
+        <v>111577591</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2249,35 +2244,40 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562937.8525077751</v>
+        <v>562822.1033927511</v>
       </c>
       <c r="R15" t="n">
-        <v>6954467.524316943</v>
+        <v>6954368.028004575</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -3024,10 +3024,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111577683</v>
+        <v>111577180</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,25 +3036,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562810.9079359611</v>
+        <v>562883.198926247</v>
       </c>
       <c r="R22" t="n">
-        <v>6954400.856378952</v>
+        <v>6954441.700568204</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3137,10 +3137,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111577180</v>
+        <v>111577683</v>
       </c>
       <c r="B23" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3149,25 +3149,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3178,10 +3178,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562883.198926247</v>
+        <v>562810.9079359611</v>
       </c>
       <c r="R23" t="n">
-        <v>6954441.700568204</v>
+        <v>6954400.856378952</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 49540-2022.xlsx
+++ b/artfynd/A 49540-2022.xlsx
@@ -1776,10 +1776,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111577964</v>
+        <v>111577080</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562836.2055113926</v>
+        <v>562937.8525077751</v>
       </c>
       <c r="R11" t="n">
-        <v>6954423.824987715</v>
+        <v>6954467.524316943</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1889,10 +1889,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111577994</v>
+        <v>111577804</v>
       </c>
       <c r="B12" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1901,25 +1901,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562890.6102569005</v>
+        <v>562814.775380839</v>
       </c>
       <c r="R12" t="n">
-        <v>6954486.814324431</v>
+        <v>6954390.834027934</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111577347</v>
+        <v>111577180</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2014,25 +2014,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562796.503171768</v>
+        <v>562883.198926247</v>
       </c>
       <c r="R13" t="n">
-        <v>6954336.792844097</v>
+        <v>6954441.700568204</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2115,10 +2115,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111577080</v>
+        <v>111577347</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2127,25 +2127,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2156,10 +2156,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>562937.8525077751</v>
+        <v>562796.503171768</v>
       </c>
       <c r="R14" t="n">
-        <v>6954467.524316943</v>
+        <v>6954336.792844097</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2228,10 +2228,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111577591</v>
+        <v>111577964</v>
       </c>
       <c r="B15" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2240,44 +2240,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562822.1033927511</v>
+        <v>562836.2055113926</v>
       </c>
       <c r="R15" t="n">
-        <v>6954368.028004575</v>
+        <v>6954423.824987715</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2309,7 +2304,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2319,7 +2314,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2346,7 +2341,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111575408</v>
+        <v>111577838</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2387,10 +2382,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562539.034657649</v>
+        <v>562801.9298062191</v>
       </c>
       <c r="R16" t="n">
-        <v>6954609.073577877</v>
+        <v>6954389.67147268</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2422,7 +2417,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2432,7 +2427,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2459,10 +2454,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111577273</v>
+        <v>111575408</v>
       </c>
       <c r="B17" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2471,25 +2466,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2500,10 +2495,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562824.7977144517</v>
+        <v>562539.034657649</v>
       </c>
       <c r="R17" t="n">
-        <v>6954323.105396069</v>
+        <v>6954609.073577877</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2535,7 +2530,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2545,7 +2540,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2572,10 +2567,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111577838</v>
+        <v>111577591</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2584,39 +2579,44 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562801.9298062191</v>
+        <v>562822.1033927511</v>
       </c>
       <c r="R18" t="n">
-        <v>6954389.67147268</v>
+        <v>6954368.028004575</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2685,10 +2685,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111577193</v>
+        <v>111577611</v>
       </c>
       <c r="B19" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2701,21 +2701,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2726,10 +2726,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562885.3077477051</v>
+        <v>562810.9079359611</v>
       </c>
       <c r="R19" t="n">
-        <v>6954427.514711756</v>
+        <v>6954400.856378952</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2798,10 +2798,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111577743</v>
+        <v>111577273</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2810,25 +2810,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562802.8660743404</v>
+        <v>562824.7977144517</v>
       </c>
       <c r="R20" t="n">
-        <v>6954388.771485241</v>
+        <v>6954323.105396069</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2911,7 +2911,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111577804</v>
+        <v>111577743</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2952,10 +2952,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562814.775380839</v>
+        <v>562802.8660743404</v>
       </c>
       <c r="R21" t="n">
-        <v>6954390.834027934</v>
+        <v>6954388.771485241</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3024,10 +3024,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111577180</v>
+        <v>111577193</v>
       </c>
       <c r="B22" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,25 +3036,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562883.198926247</v>
+        <v>562885.3077477051</v>
       </c>
       <c r="R22" t="n">
-        <v>6954441.700568204</v>
+        <v>6954427.514711756</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111577683</v>
+        <v>111577994</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3149,25 +3149,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3178,10 +3178,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562810.9079359611</v>
+        <v>562890.6102569005</v>
       </c>
       <c r="R23" t="n">
-        <v>6954400.856378952</v>
+        <v>6954486.814324431</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 49540-2022.xlsx
+++ b/artfynd/A 49540-2022.xlsx
@@ -1663,10 +1663,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111578090</v>
+        <v>111577611</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1675,25 +1675,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562890.6102569005</v>
+        <v>562810.9079359611</v>
       </c>
       <c r="R10" t="n">
-        <v>6954486.814324431</v>
+        <v>6954400.856378952</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1776,10 +1776,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111577080</v>
+        <v>111577743</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562937.8525077751</v>
+        <v>562802.8660743404</v>
       </c>
       <c r="R11" t="n">
-        <v>6954467.524316943</v>
+        <v>6954388.771485241</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1889,10 +1889,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111577804</v>
+        <v>111577193</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1905,21 +1905,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562814.775380839</v>
+        <v>562885.3077477051</v>
       </c>
       <c r="R12" t="n">
-        <v>6954390.834027934</v>
+        <v>6954427.514711756</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2002,10 +2002,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111577180</v>
+        <v>111577838</v>
       </c>
       <c r="B13" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2014,25 +2014,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562883.198926247</v>
+        <v>562801.9298062191</v>
       </c>
       <c r="R13" t="n">
-        <v>6954441.700568204</v>
+        <v>6954389.67147268</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2115,10 +2115,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111577347</v>
+        <v>111577273</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2127,25 +2127,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2156,10 +2156,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>562796.503171768</v>
+        <v>562824.7977144517</v>
       </c>
       <c r="R14" t="n">
-        <v>6954336.792844097</v>
+        <v>6954323.105396069</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2228,10 +2228,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111577964</v>
+        <v>111578062</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2240,25 +2240,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562836.2055113926</v>
+        <v>562890.6102569005</v>
       </c>
       <c r="R15" t="n">
-        <v>6954423.824987715</v>
+        <v>6954486.814324431</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2341,7 +2341,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111577838</v>
+        <v>111577804</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562801.9298062191</v>
+        <v>562814.775380839</v>
       </c>
       <c r="R16" t="n">
-        <v>6954389.67147268</v>
+        <v>6954390.834027934</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2454,7 +2454,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111575408</v>
+        <v>111577919</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562539.034657649</v>
+        <v>562836.2055113926</v>
       </c>
       <c r="R17" t="n">
-        <v>6954609.073577877</v>
+        <v>6954423.824987715</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2567,10 +2567,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111577591</v>
+        <v>111577347</v>
       </c>
       <c r="B18" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2579,44 +2579,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562822.1033927511</v>
+        <v>562796.503171768</v>
       </c>
       <c r="R18" t="n">
-        <v>6954368.028004575</v>
+        <v>6954336.792844097</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2685,10 +2680,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111577611</v>
+        <v>111577180</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2697,25 +2692,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2726,10 +2721,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562810.9079359611</v>
+        <v>562883.198926247</v>
       </c>
       <c r="R19" t="n">
-        <v>6954400.856378952</v>
+        <v>6954441.700568204</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2761,7 +2756,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2771,7 +2766,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2798,10 +2793,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111577273</v>
+        <v>111575408</v>
       </c>
       <c r="B20" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2810,25 +2805,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2839,10 +2834,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562824.7977144517</v>
+        <v>562539.034657649</v>
       </c>
       <c r="R20" t="n">
-        <v>6954323.105396069</v>
+        <v>6954609.073577877</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2874,7 +2869,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2884,7 +2879,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2911,10 +2906,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111577743</v>
+        <v>111577080</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2923,25 +2918,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2952,10 +2947,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562802.8660743404</v>
+        <v>562937.8525077751</v>
       </c>
       <c r="R21" t="n">
-        <v>6954388.771485241</v>
+        <v>6954467.524316943</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2987,7 +2982,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2997,7 +2992,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3024,10 +3019,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111577193</v>
+        <v>111577591</v>
       </c>
       <c r="B22" t="n">
-        <v>89845</v>
+        <v>56543</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,39 +3031,44 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1209</v>
+        <v>103021</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562885.3077477051</v>
+        <v>562822.1033927511</v>
       </c>
       <c r="R22" t="n">
-        <v>6954427.514711756</v>
+        <v>6954368.028004575</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3137,10 +3137,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111577994</v>
+        <v>111578090</v>
       </c>
       <c r="B23" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3153,21 +3153,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 49540-2022.xlsx
+++ b/artfynd/A 49540-2022.xlsx
@@ -1663,10 +1663,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111577611</v>
+        <v>111577193</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1679,21 +1679,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562810.9079359611</v>
+        <v>562885.3077477051</v>
       </c>
       <c r="R10" t="n">
-        <v>6954400.856378952</v>
+        <v>6954427.514711756</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1776,10 +1776,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111577743</v>
+        <v>111577080</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562802.8660743404</v>
+        <v>562937.8525077751</v>
       </c>
       <c r="R11" t="n">
-        <v>6954388.771485241</v>
+        <v>6954467.524316943</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1889,10 +1889,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111577193</v>
+        <v>111577838</v>
       </c>
       <c r="B12" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1905,21 +1905,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562885.3077477051</v>
+        <v>562801.9298062191</v>
       </c>
       <c r="R12" t="n">
-        <v>6954427.514711756</v>
+        <v>6954389.67147268</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2002,7 +2002,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111577838</v>
+        <v>111577611</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562801.9298062191</v>
+        <v>562810.9079359611</v>
       </c>
       <c r="R13" t="n">
-        <v>6954389.67147268</v>
+        <v>6954400.856378952</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2228,10 +2228,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111578062</v>
+        <v>111577804</v>
       </c>
       <c r="B15" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2240,25 +2240,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562890.6102569005</v>
+        <v>562814.775380839</v>
       </c>
       <c r="R15" t="n">
-        <v>6954486.814324431</v>
+        <v>6954390.834027934</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2341,10 +2341,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111577804</v>
+        <v>111577994</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2353,25 +2353,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562814.775380839</v>
+        <v>562890.6102569005</v>
       </c>
       <c r="R16" t="n">
-        <v>6954390.834027934</v>
+        <v>6954486.814324431</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111577347</v>
+        <v>111575408</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2608,10 +2608,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562796.503171768</v>
+        <v>562539.034657649</v>
       </c>
       <c r="R18" t="n">
-        <v>6954336.792844097</v>
+        <v>6954609.073577877</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2680,10 +2680,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111577180</v>
+        <v>111578090</v>
       </c>
       <c r="B19" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2696,21 +2696,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2721,10 +2721,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562883.198926247</v>
+        <v>562890.6102569005</v>
       </c>
       <c r="R19" t="n">
-        <v>6954441.700568204</v>
+        <v>6954486.814324431</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2793,7 +2793,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111575408</v>
+        <v>111577743</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562539.034657649</v>
+        <v>562802.8660743404</v>
       </c>
       <c r="R20" t="n">
-        <v>6954609.073577877</v>
+        <v>6954388.771485241</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2906,10 +2906,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111577080</v>
+        <v>111577591</v>
       </c>
       <c r="B21" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2922,35 +2922,40 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562937.8525077751</v>
+        <v>562822.1033927511</v>
       </c>
       <c r="R21" t="n">
-        <v>6954467.524316943</v>
+        <v>6954368.028004575</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2982,7 +2987,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2992,7 +2997,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3019,10 +3024,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111577591</v>
+        <v>111577347</v>
       </c>
       <c r="B22" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3031,44 +3036,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562822.1033927511</v>
+        <v>562796.503171768</v>
       </c>
       <c r="R22" t="n">
-        <v>6954368.028004575</v>
+        <v>6954336.792844097</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111578090</v>
+        <v>111577180</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3153,21 +3153,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3178,10 +3178,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562890.6102569005</v>
+        <v>562883.198926247</v>
       </c>
       <c r="R23" t="n">
-        <v>6954486.814324431</v>
+        <v>6954441.700568204</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 49540-2022.xlsx
+++ b/artfynd/A 49540-2022.xlsx
@@ -1663,10 +1663,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111577193</v>
+        <v>111577591</v>
       </c>
       <c r="B10" t="n">
-        <v>89845</v>
+        <v>56543</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1675,39 +1675,44 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>103021</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562885.3077477051</v>
+        <v>562822.1033927511</v>
       </c>
       <c r="R10" t="n">
-        <v>6954427.514711756</v>
+        <v>6954368.028004575</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1739,7 +1744,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1749,7 +1754,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1776,10 +1781,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111577080</v>
+        <v>111577964</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1788,25 +1793,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1817,10 +1822,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562937.8525077751</v>
+        <v>562836.2055113926</v>
       </c>
       <c r="R11" t="n">
-        <v>6954467.524316943</v>
+        <v>6954423.824987715</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1852,7 +1857,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1862,7 +1867,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1889,7 +1894,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111577838</v>
+        <v>111575408</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1930,10 +1935,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562801.9298062191</v>
+        <v>562539.034657649</v>
       </c>
       <c r="R12" t="n">
-        <v>6954389.67147268</v>
+        <v>6954609.073577877</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1965,7 +1970,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1975,7 +1980,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>18:14</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2002,7 +2007,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111577611</v>
+        <v>111577804</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2043,10 +2048,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562810.9079359611</v>
+        <v>562814.775380839</v>
       </c>
       <c r="R13" t="n">
-        <v>6954400.856378952</v>
+        <v>6954390.834027934</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2115,10 +2120,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111577273</v>
+        <v>111577193</v>
       </c>
       <c r="B14" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2127,25 +2132,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2156,10 +2161,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>562824.7977144517</v>
+        <v>562885.3077477051</v>
       </c>
       <c r="R14" t="n">
-        <v>6954323.105396069</v>
+        <v>6954427.514711756</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2228,10 +2233,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111577804</v>
+        <v>111578062</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2240,25 +2245,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2269,10 +2274,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562814.775380839</v>
+        <v>562890.6102569005</v>
       </c>
       <c r="R15" t="n">
-        <v>6954390.834027934</v>
+        <v>6954486.814324431</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2304,7 +2309,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2314,7 +2319,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2341,10 +2346,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111577994</v>
+        <v>111577080</v>
       </c>
       <c r="B16" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2357,21 +2362,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2382,10 +2387,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562890.6102569005</v>
+        <v>562937.8525077751</v>
       </c>
       <c r="R16" t="n">
-        <v>6954486.814324431</v>
+        <v>6954467.524316943</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2417,7 +2422,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2427,7 +2432,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2454,10 +2459,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111577919</v>
+        <v>111577180</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2466,25 +2471,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2495,10 +2500,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562836.2055113926</v>
+        <v>562883.198926247</v>
       </c>
       <c r="R17" t="n">
-        <v>6954423.824987715</v>
+        <v>6954441.700568204</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2530,7 +2535,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2540,7 +2545,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2567,10 +2572,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111575408</v>
+        <v>111577273</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2579,25 +2584,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2608,10 +2613,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562539.034657649</v>
+        <v>562824.7977144517</v>
       </c>
       <c r="R18" t="n">
-        <v>6954609.073577877</v>
+        <v>6954323.105396069</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2643,7 +2648,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2653,7 +2658,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2680,10 +2685,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111578090</v>
+        <v>111577347</v>
       </c>
       <c r="B19" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2692,25 +2697,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2721,10 +2726,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562890.6102569005</v>
+        <v>562796.503171768</v>
       </c>
       <c r="R19" t="n">
-        <v>6954486.814324431</v>
+        <v>6954336.792844097</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2756,7 +2761,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2766,7 +2771,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2793,7 +2798,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111577743</v>
+        <v>111577611</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2834,10 +2839,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562802.8660743404</v>
+        <v>562810.9079359611</v>
       </c>
       <c r="R20" t="n">
-        <v>6954388.771485241</v>
+        <v>6954400.856378952</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2869,7 +2874,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2879,7 +2884,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2906,10 +2911,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111577591</v>
+        <v>111578090</v>
       </c>
       <c r="B21" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2922,40 +2927,35 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562822.1033927511</v>
+        <v>562890.6102569005</v>
       </c>
       <c r="R21" t="n">
-        <v>6954368.028004575</v>
+        <v>6954486.814324431</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3024,7 +3024,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111577347</v>
+        <v>111577838</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562796.503171768</v>
+        <v>562801.9298062191</v>
       </c>
       <c r="R22" t="n">
-        <v>6954336.792844097</v>
+        <v>6954389.67147268</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:14</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3137,10 +3137,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111577180</v>
+        <v>111577743</v>
       </c>
       <c r="B23" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3149,25 +3149,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3178,10 +3178,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562883.198926247</v>
+        <v>562802.8660743404</v>
       </c>
       <c r="R23" t="n">
-        <v>6954441.700568204</v>
+        <v>6954388.771485241</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="AD23" t="b">
